--- a/output/date/2021-12-18/2021-12-18_TV.xlsx
+++ b/output/date/2021-12-18/2021-12-18_TV.xlsx
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ELEX &lt;b&gt;TV&lt;/b&gt;8550</t>
+          <t>한성컴퓨터 ELEX TV8550</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>유맥스 Ai43 구글공식인증 스마트&lt;b&gt;TV&lt;/b&gt; 크롬캐스트</t>
+          <t>유맥스 Ai43 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>라익미 스마트 DS5001L 4K HDR 다이렉트&lt;b&gt;TV&lt;/b&gt;</t>
+          <t>라익미 스마트 DS5001L 4K HDR 다이렉트TV</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>한성컴퓨터 ELEX &lt;b&gt;TV&lt;/b&gt;8650</t>
+          <t>한성컴퓨터 ELEX TV8650</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2287,7 +2287,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>와사비망고 WM 650 QLED UHD 스마트&lt;b&gt;TV&lt;/b&gt; AI 와글와글</t>
+          <t>와사비망고 WM 650 QLED UHD 스마트TV AI 와글와글</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>삼성전자 UHD 4K 50인치 55인치 65인치 75인치 LED 비즈니스 &lt;b&gt;TV&lt;/b&gt; 모니터</t>
+          <t>삼성전자 UHD 4K 50인치 55인치 65인치 75인치 LED 비즈니스 TV 모니터</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>유맥스 Ai50 구글공식인증 스마트&lt;b&gt;TV&lt;/b&gt; 크롬캐스트</t>
+          <t>유맥스 Ai50 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>이엔&lt;b&gt;티비&lt;/b&gt; DIEN32H-MT</t>
+          <t>이엔티비 DIEN32H-MT</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>와사비망고 ZEN U550 UHD &lt;b&gt;TV&lt;/b&gt; MAX HDR</t>
+          <t>와사비망고 ZEN U550 UHD TV MAX HDR</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5645,7 +5645,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>프리즘코리아 A43i google android &lt;b&gt;TV&lt;/b&gt; BT50</t>
+          <t>프리즘코리아 A43i google android TV BT50</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>이엔&lt;b&gt;티비&lt;/b&gt; DIEN40F-KT</t>
+          <t>이엔티비 DIEN40F-KT</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>삼성전자 32인치 40인치 42인치 43인치 50인치 55인치 65인치 75인치 FHD UHD LED 사이니지 &lt;b&gt;TV&lt;/b&gt;</t>
+          <t>삼성전자 32인치 40인치 42인치 43인치 50인치 55인치 65인치 75인치 FHD UHD LED 사이니지 TV</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6619,7 +6619,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LG 28인치 넷플릭스 스마트&lt;b&gt;TV&lt;/b&gt; 소형&lt;b&gt;TV&lt;/b&gt; 룸앤&lt;b&gt;TV&lt;/b&gt; 캠핑&lt;b&gt;티비&lt;/b&gt; 벽걸이 가능 에너지효율1등급</t>
+          <t>LG 28인치 넷플릭스 스마트TV 소형TV 룸앤TV 캠핑티비 벽걸이 가능 에너지효율1등급</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>유맥스 Ai65 구글공식인증 스마트&lt;b&gt;TV&lt;/b&gt; 크롬캐스트</t>
+          <t>유맥스 Ai65 구글공식인증 스마트TV 크롬캐스트</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
